--- a/data/spreadsheet.xlsx
+++ b/data/spreadsheet.xlsx
@@ -34,17 +34,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>rank</t>
-  </si>
-  <si>
-    <t>happy
-new year</t>
   </si>
   <si>
     <t>event_id</t>
@@ -56,16 +46,26 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>taro</t>
+    <t>user_name</t>
   </si>
   <si>
-    <t>user_name</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>taro</t>
   </si>
   <si>
     <t>jiro</t>
   </si>
   <si>
     <t>saburo</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy
+new year</t>
   </si>
 </sst>
 </file>
@@ -101,10 +101,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -114,7 +114,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2143125" cy="2133600"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876650" y="711075"/>
+          <a:ext cx="2123400" cy="2113800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CFE2F3"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -126,20 +185,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3790950" cy="2971800"/>
+    <xdr:ext cx="3800475" cy="2981325"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="5" name="Shape 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3455288" y="2298863"/>
-          <a:ext cx="3781425" cy="2962275"/>
+          <a:off x="3450525" y="2294100"/>
+          <a:ext cx="3790950" cy="2971800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -400,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -408,7 +467,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -416,7 +475,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -1439,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -1464,7 +1523,7 @@
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <f t="array" ref="D2">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1483,7 +1542,7 @@
       <c r="E2" s="1">
         <v>1.0</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <f t="array" ref="F2">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1504,7 +1563,7 @@
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <f t="array" ref="D3">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1524,7 +1583,7 @@
       <c r="E3" s="1">
         <v>3.0</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <f t="array" ref="F3">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1542,7 +1601,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <f t="array" ref="D4">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1561,7 +1620,7 @@
       <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <f t="array" ref="F4">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1579,7 +1638,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <f t="array" ref="D5">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1595,7 +1654,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <f t="array" ref="F5">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1613,7 +1672,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <f t="array" ref="D6">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1629,7 +1688,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <f t="array" ref="F6">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1647,7 +1706,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <f t="array" ref="D7">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1663,7 +1722,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <f t="array" ref="F7">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1681,7 +1740,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <f t="array" ref="D8">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1697,7 +1756,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <f t="array" ref="F8">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1715,7 +1774,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <f t="array" ref="D9">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1731,7 +1790,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <f t="array" ref="F9">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1749,7 +1808,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="1" t="str">
         <f t="array" ref="F10">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1770,7 +1829,7 @@
       <c r="C11" s="1">
         <v>1.0</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" ref="D11:D19" si="1">GetCellFilterByColumnValue(
   "events!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",event_id") &amp;",name"
 )</f>
@@ -1779,7 +1838,7 @@
       <c r="E11" s="1">
         <v>1.0</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="1" t="str">
         <f t="shared" ref="F11:F19" si="2">GetCellFilterByColumnValue(
   "users!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",user_id") &amp;",name"
 )</f>
@@ -1790,7 +1849,7 @@
       <c r="C12" s="1">
         <v>2.0</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>happy
 new year</v>
@@ -1798,20 +1857,20 @@
       <c r="E12" s="1">
         <v>2.0</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>jiro</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" s="1">
         <v>3.0</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>saburo</v>
       </c>
@@ -1820,61 +1879,61 @@
       <c r="B14" s="1">
         <v>5.0</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F15" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="2" t="str">
+      <c r="F16" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="2" t="str">
+      <c r="F17" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="2" t="str">
+      <c r="F18" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="2" t="str">
+      <c r="F19" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2883,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -2891,7 +2950,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2899,7 +2958,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -2907,12 +2966,12 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="1"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>

--- a/data/spreadsheet.xlsx
+++ b/data/spreadsheet.xlsx
@@ -52,6 +52,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy
+new year</t>
+  </si>
+  <si>
     <t>taro</t>
   </si>
   <si>
@@ -59,13 +66,6 @@
   </si>
   <si>
     <t>saburo</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy
-new year</t>
   </si>
 </sst>
 </file>
@@ -101,10 +101,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -118,20 +118,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2143125" cy="2133600"/>
+    <xdr:ext cx="2152650" cy="2143125"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="4" name="Shape 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876650" y="711075"/>
-          <a:ext cx="2123400" cy="2113800"/>
+          <a:off x="4274438" y="2713200"/>
+          <a:ext cx="2143125" cy="2133600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -162,6 +162,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1400"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -185,20 +187,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3800475" cy="2981325"/>
+    <xdr:ext cx="3810000" cy="2990850"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3450525" y="2294100"/>
-          <a:ext cx="3790950" cy="2971800"/>
+          <a:off x="3445763" y="2289338"/>
+          <a:ext cx="3800475" cy="2981325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -467,7 +469,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -475,7 +477,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -1523,7 +1525,7 @@
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <f t="array" ref="D2">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1542,7 +1544,7 @@
       <c r="E2" s="1">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <f t="array" ref="F2">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1563,7 +1565,7 @@
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <f t="array" ref="D3">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1583,7 +1585,7 @@
       <c r="E3" s="1">
         <v>3.0</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <f t="array" ref="F3">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1601,7 +1603,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <f t="array" ref="D4">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1620,7 +1622,7 @@
       <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <f t="array" ref="F4">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1638,7 +1640,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <f t="array" ref="D5">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1654,7 +1656,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <f t="array" ref="F5">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1672,7 +1674,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <f t="array" ref="D6">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1688,7 +1690,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <f t="array" ref="F6">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1706,7 +1708,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <f t="array" ref="D7">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1722,7 +1724,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <f t="array" ref="F7">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1740,7 +1742,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <f t="array" ref="D8">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1756,7 +1758,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <f t="array" ref="F8">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1774,7 +1776,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <f t="array" ref="D9">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1790,7 +1792,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <f t="array" ref="F9">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1808,7 +1810,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="2" t="str">
         <f t="array" ref="F10">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1829,7 +1831,7 @@
       <c r="C11" s="1">
         <v>1.0</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="2" t="str">
         <f t="shared" ref="D11:D19" si="1">GetCellFilterByColumnValue(
   "events!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",event_id") &amp;",name"
 )</f>
@@ -1838,7 +1840,7 @@
       <c r="E11" s="1">
         <v>1.0</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="2" t="str">
         <f t="shared" ref="F11:F19" si="2">GetCellFilterByColumnValue(
   "users!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",user_id") &amp;",name"
 )</f>
@@ -1849,7 +1851,7 @@
       <c r="C12" s="1">
         <v>2.0</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>happy
 new year</v>
@@ -1857,20 +1859,20 @@
       <c r="E12" s="1">
         <v>2.0</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>jiro</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" s="1">
         <v>3.0</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>saburo</v>
       </c>
@@ -1879,61 +1881,61 @@
       <c r="B14" s="1">
         <v>5.0</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="F14" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="D15" s="1" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="1" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F16" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="1" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F17" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="1" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="1" t="str">
+      <c r="F18" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="1" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="1" t="str">
+      <c r="F19" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2950,7 +2952,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2958,7 +2960,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -2966,12 +2968,12 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>

--- a/data/spreadsheet.xlsx
+++ b/data/spreadsheet.xlsx
@@ -3,9 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="events" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="rankings" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="users" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="talking" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="events" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="rankings" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="users" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +48,9 @@
   </si>
   <si>
     <t>user_name</t>
+  </si>
+  <si>
+    <t>スプレットシートマスター</t>
   </si>
   <si>
     <t>name</t>
@@ -59,36 +63,221 @@
 new year</t>
   </si>
   <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>スプレットシートで管理しているものを全部Gitで管理しようというもの</t>
+  </si>
+  <si>
+    <t>使い方</t>
+  </si>
+  <si>
+    <t>GASだけをGit管理したいとき</t>
+  </si>
+  <si>
+    <t>clasp提供のログインを行う</t>
+  </si>
+  <si>
+    <t>npx clasp login</t>
+  </si>
+  <si>
+    <t>新規のスプレットシートを作成する</t>
+  </si>
+  <si>
+    <t>npm run new name hoge</t>
+  </si>
+  <si>
+    <t>.clasp.jsonに"rootDir":"dist"と追記されたものが作成される</t>
+  </si>
+  <si>
+    <t>すでにプロジェクトにあるGASをビルド&amp;デプロイ</t>
+  </si>
+  <si>
+    <t>npm run build</t>
+  </si>
+  <si>
+    <t>npx clasp push</t>
+  </si>
+  <si>
+    <t>スプレットシート全体をGit管理したいとき</t>
+  </si>
+  <si>
+    <t>Cloud ConsoleからGoogleアプリ作成する</t>
+  </si>
+  <si>
+    <t>使用するAPIのスコープを設定する</t>
+  </si>
+  <si>
+    <t>npx clasp loginした時に生成される内容と</t>
+  </si>
+  <si>
+    <t>dist/appsscript.json</t>
+  </si>
+  <si>
+    <t>を参照</t>
+  </si>
+  <si>
+    <t>認証情報のJSONファイルをcreds.jsonにリネーム</t>
+  </si>
+  <si>
+    <t>spread_masterのプロジェクトに移動させる</t>
+  </si>
+  <si>
+    <t>自分の設定したGoogleの認証を行う</t>
+  </si>
+  <si>
+    <t>npx clasp login --creds creds.json</t>
+  </si>
+  <si>
+    <t>.clasp.jsonの編集</t>
+  </si>
+  <si>
+    <t>もし既存のスプレットシート、GASがある場合、spreadsheetIdとscriptId変更する</t>
+  </si>
+  <si>
+    <t>作成したGoogleアプリケーションのprojectIdを記載する</t>
+  </si>
+  <si>
+    <t>スプレットシートの内容をダウンロードする</t>
+  </si>
+  <si>
+    <t>npm run dump</t>
+  </si>
+  <si>
+    <t>スプレットシートのセルの値をCSV, YAML化する</t>
+  </si>
+  <si>
+    <t>スプレットシートをxlxsでダウンロードする</t>
+  </si>
+  <si>
+    <t>Git管理されているCSVをスプレットシートに再反映する</t>
+  </si>
+  <si>
+    <t>npm run recreate</t>
+  </si>
+  <si>
+    <t>書式を再反映したいときは</t>
+  </si>
+  <si>
+    <t>npm run dumpしたときのxlsxをインポートする必要がある</t>
+  </si>
+  <si>
+    <t>画像やメモも復元可能</t>
+  </si>
+  <si>
+    <t>手順</t>
+  </si>
+  <si>
+    <t>スプレットシート -&gt; ファイル -&gt; インポート -&gt; アップロード -&gt; スプレットシートを置換する</t>
+  </si>
+  <si>
+    <t>Gitのコミットハッシュでスプレットシートの差分をビジュアライズに比較する</t>
+  </si>
+  <si>
+    <t>使うときは</t>
+  </si>
+  <si>
+    <t>LibreOfficeをインストール</t>
+  </si>
+  <si>
+    <t>brew cask install xquartz</t>
+  </si>
+  <si>
+    <t>brew install diff-pdf</t>
+  </si>
+  <si>
+    <t>npm run compare commit_hash 123456789abcd</t>
+  </si>
+  <si>
+    <t>シートの順番変えられた時とか差分いっぱい出るからしんどい</t>
+  </si>
+  <si>
     <t>taro</t>
   </si>
   <si>
+    <t>余談</t>
+  </si>
+  <si>
     <t>jiro</t>
   </si>
   <si>
     <t>saburo</t>
+  </si>
+  <si>
+    <t>src/gas</t>
+  </si>
+  <si>
+    <t>GASでのみ使用するスクリプト</t>
+  </si>
+  <si>
+    <t>src/tasks</t>
+  </si>
+  <si>
+    <t>ローカルでのみ使用するスクリプト</t>
+  </si>
+  <si>
+    <t>テストについて</t>
+  </si>
+  <si>
+    <t>GASないでのみ使えるものは全部モックで検証</t>
+  </si>
+  <si>
+    <t>最近読めないExcel関数</t>
+  </si>
+  <si>
+    <t>INDEX MATCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,14 +286,36 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -114,6 +325,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -125,7 +340,7 @@
     <xdr:ext cx="2152650" cy="2143125"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -178,11 +393,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -194,7 +409,7 @@
     <xdr:ext cx="3810000" cy="2990850"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="4" name="Shape 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -453,31 +668,442 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="2" width="4.57"/>
+    <col customWidth="1" min="3" max="3" width="4.29"/>
+    <col customWidth="1" min="4" max="4" width="4.86"/>
+    <col customWidth="1" min="5" max="5" width="5.71"/>
+    <col customWidth="1" min="6" max="6" width="5.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" s="7"/>
+      <c r="E52" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
     <col customWidth="1" min="1" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -1482,7 +2108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1525,7 +2151,7 @@
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="7" t="str">
         <f t="array" ref="D2">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1544,7 +2170,7 @@
       <c r="E2" s="1">
         <v>1.0</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="7" t="str">
         <f t="array" ref="F2">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1565,7 +2191,7 @@
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="7" t="str">
         <f t="array" ref="D3">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1585,7 +2211,7 @@
       <c r="E3" s="1">
         <v>3.0</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="7" t="str">
         <f t="array" ref="F3">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1603,7 +2229,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="7" t="str">
         <f t="array" ref="D4">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1622,7 +2248,7 @@
       <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="7" t="str">
         <f t="array" ref="F4">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1640,7 +2266,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="7" t="str">
         <f t="array" ref="D5">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1656,7 +2282,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="7" t="str">
         <f t="array" ref="F5">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1674,7 +2300,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="7" t="str">
         <f t="array" ref="D6">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1690,7 +2316,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="7" t="str">
         <f t="array" ref="F6">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1708,7 +2334,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="7" t="str">
         <f t="array" ref="D7">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1724,7 +2350,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="7" t="str">
         <f t="array" ref="F7">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1742,7 +2368,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="7" t="str">
         <f t="array" ref="D8">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1758,7 +2384,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="7" t="str">
         <f t="array" ref="F8">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1776,7 +2402,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="7" t="str">
         <f t="array" ref="D9">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -1792,7 +2418,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="7" t="str">
         <f t="array" ref="F9">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1810,7 +2436,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="7" t="str">
         <f t="array" ref="F10">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -1831,7 +2457,7 @@
       <c r="C11" s="1">
         <v>1.0</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="7" t="str">
         <f t="shared" ref="D11:D19" si="1">GetCellFilterByColumnValue(
   "events!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",event_id") &amp;",name"
 )</f>
@@ -1840,7 +2466,7 @@
       <c r="E11" s="1">
         <v>1.0</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="7" t="str">
         <f t="shared" ref="F11:F19" si="2">GetCellFilterByColumnValue(
   "users!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",user_id") &amp;",name"
 )</f>
@@ -1851,7 +2477,7 @@
       <c r="C12" s="1">
         <v>2.0</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>happy
 new year</v>
@@ -1859,20 +2485,20 @@
       <c r="E12" s="1">
         <v>2.0</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="7" t="str">
         <f t="shared" si="2"/>
         <v>jiro</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" s="1">
         <v>3.0</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="7" t="str">
         <f t="shared" si="2"/>
         <v>saburo</v>
       </c>
@@ -1881,61 +2507,61 @@
       <c r="B14" s="1">
         <v>5.0</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F15" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="2" t="str">
+      <c r="F16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="2" t="str">
+      <c r="F17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="2" t="str">
+      <c r="F18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="2" t="str">
+      <c r="F19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2926,7 +3552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2940,40 +3566,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+      <c r="B2" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="1"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>

--- a/data/spreadsheet.xlsx
+++ b/data/spreadsheet.xlsx
@@ -38,25 +38,25 @@
     <t>rank</t>
   </si>
   <si>
+    <t>スプレットシートマスター</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>event_id</t>
   </si>
   <si>
     <t>event_name</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>user_id</t>
   </si>
   <si>
     <t>user_name</t>
-  </si>
-  <si>
-    <t>スプレットシートマスター</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>happy
@@ -108,7 +108,7 @@
     <t>使用するAPIのスコープを設定する</t>
   </si>
   <si>
-    <t>npx clasp loginした時に生成される内容と</t>
+    <t>npx clasp loginした時に生成される.clasprc.jsonと</t>
   </si>
   <si>
     <t>dist/appsscript.json</t>
@@ -174,6 +174,9 @@
     <t>Gitのコミットハッシュでスプレットシートの差分をビジュアライズに比較する</t>
   </si>
   <si>
+    <t>taro</t>
+  </si>
+  <si>
     <t>使うときは</t>
   </si>
   <si>
@@ -186,22 +189,19 @@
     <t>brew install diff-pdf</t>
   </si>
   <si>
+    <t>jiro</t>
+  </si>
+  <si>
     <t>npm run compare commit_hash 123456789abcd</t>
   </si>
   <si>
     <t>シートの順番変えられた時とか差分いっぱい出るからしんどい</t>
   </si>
   <si>
-    <t>taro</t>
+    <t>saburo</t>
   </si>
   <si>
     <t>余談</t>
-  </si>
-  <si>
-    <t>jiro</t>
-  </si>
-  <si>
-    <t>saburo</t>
   </si>
   <si>
     <t>src/gas</t>
@@ -232,13 +232,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -286,36 +285,22 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -333,11 +318,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2152650" cy="2143125"/>
+    <xdr:ext cx="2162175" cy="2152650"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -345,8 +330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4274438" y="2713200"/>
-          <a:ext cx="2143125" cy="2133600"/>
+          <a:off x="4269675" y="2708438"/>
+          <a:ext cx="2152650" cy="2143125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -402,11 +387,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3810000" cy="2990850"/>
+    <xdr:ext cx="3819525" cy="3000375"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 4"/>
@@ -414,8 +399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3445763" y="2289338"/>
-          <a:ext cx="3800475" cy="2981325"/>
+          <a:off x="3441000" y="2284575"/>
+          <a:ext cx="3810000" cy="2990850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -677,105 +662,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7"/>
+      <c r="A5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -785,12 +767,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="7"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11">
       <c r="C11" s="1" t="s">
@@ -803,13 +785,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="7"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15">
       <c r="C15" s="1" t="s">
@@ -817,17 +799,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -836,234 +818,1172 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21">
-      <c r="D21" s="7" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22">
-      <c r="E22" s="7" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23">
-      <c r="E23" s="7" t="s">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="E23" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24">
-      <c r="E24" s="7" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27">
-      <c r="D27" s="7" t="s">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="D27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29">
-      <c r="C29" s="7" t="s">
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" s="7" t="s">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31">
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" s="7" t="s">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36">
-      <c r="C36" s="7" t="s">
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" s="7" t="s">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="D37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38">
-      <c r="E38" s="7" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="E38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
-      <c r="E39" s="7" t="s">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="E39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41">
-      <c r="C41" s="7" t="s">
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="C41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42">
-      <c r="D42" s="7" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="D42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44">
-      <c r="C44" s="7" t="s">
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45">
-      <c r="C45" s="7" t="s">
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="C45" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47">
-      <c r="D47" s="7" t="s">
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="D47" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48">
-      <c r="E48" s="7" t="s">
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="E48" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50">
-      <c r="C50" s="7" t="s">
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="C50" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="D51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="D52" s="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="D53" s="7"/>
-      <c r="E53" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54">
-      <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55">
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
       <c r="D55" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="D56" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="D56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="7" t="s">
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60">
-      <c r="C60" s="7" t="s">
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="C60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62">
-      <c r="C62" s="7" t="s">
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="C62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" s="7" t="s">
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="C65" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67">
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1">
       <c r="B67" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68">
-      <c r="C68" s="7" t="s">
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="C68" s="1" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1083,26 +2003,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2129,16 +3049,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -2151,7 +3071,7 @@
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="6" t="str">
         <f t="array" ref="D2">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -2170,7 +3090,7 @@
       <c r="E2" s="1">
         <v>1.0</v>
       </c>
-      <c r="F2" s="7" t="str">
+      <c r="F2" s="6" t="str">
         <f t="array" ref="F2">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -2191,7 +3111,7 @@
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D3" s="6" t="str">
         <f t="array" ref="D3">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -2211,7 +3131,7 @@
       <c r="E3" s="1">
         <v>3.0</v>
       </c>
-      <c r="F3" s="7" t="str">
+      <c r="F3" s="6" t="str">
         <f t="array" ref="F3">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -2229,7 +3149,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="7" t="str">
+      <c r="D4" s="6" t="str">
         <f t="array" ref="D4">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -2248,7 +3168,7 @@
       <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="7" t="str">
+      <c r="F4" s="6" t="str">
         <f t="array" ref="F4">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -2266,7 +3186,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="D5" s="7" t="str">
+      <c r="D5" s="6" t="str">
         <f t="array" ref="D5">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -2282,7 +3202,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="7" t="str">
+      <c r="F5" s="6" t="str">
         <f t="array" ref="F5">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -2300,7 +3220,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="D6" s="7" t="str">
+      <c r="D6" s="6" t="str">
         <f t="array" ref="D6">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -2316,7 +3236,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="7" t="str">
+      <c r="F6" s="6" t="str">
         <f t="array" ref="F6">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -2334,7 +3254,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="6" t="str">
         <f t="array" ref="D7">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -2350,7 +3270,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="7" t="str">
+      <c r="F7" s="6" t="str">
         <f t="array" ref="F7">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -2368,7 +3288,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="6" t="str">
         <f t="array" ref="D8">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -2384,7 +3304,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="7" t="str">
+      <c r="F8" s="6" t="str">
         <f t="array" ref="F8">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -2402,7 +3322,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="6" t="str">
         <f t="array" ref="D9">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -2418,7 +3338,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F9" s="7" t="str">
+      <c r="F9" s="6" t="str">
         <f t="array" ref="F9">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -2436,7 +3356,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="7" t="str">
+      <c r="F10" s="6" t="str">
         <f t="array" ref="F10">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -2457,7 +3377,7 @@
       <c r="C11" s="1">
         <v>1.0</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="6" t="str">
         <f t="shared" ref="D11:D19" si="1">GetCellFilterByColumnValue(
   "events!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",event_id") &amp;",name"
 )</f>
@@ -2466,7 +3386,7 @@
       <c r="E11" s="1">
         <v>1.0</v>
       </c>
-      <c r="F11" s="7" t="str">
+      <c r="F11" s="6" t="str">
         <f t="shared" ref="F11:F19" si="2">GetCellFilterByColumnValue(
   "users!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",user_id") &amp;",name"
 )</f>
@@ -2477,7 +3397,7 @@
       <c r="C12" s="1">
         <v>2.0</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>happy
 new year</v>
@@ -2485,20 +3405,20 @@
       <c r="E12" s="1">
         <v>2.0</v>
       </c>
-      <c r="F12" s="7" t="str">
+      <c r="F12" s="6" t="str">
         <f t="shared" si="2"/>
         <v>jiro</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" s="1">
         <v>3.0</v>
       </c>
-      <c r="F13" s="7" t="str">
+      <c r="F13" s="6" t="str">
         <f t="shared" si="2"/>
         <v>saburo</v>
       </c>
@@ -2507,61 +3427,61 @@
       <c r="B14" s="1">
         <v>5.0</v>
       </c>
-      <c r="D14" s="7" t="str">
+      <c r="D14" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="7" t="str">
+      <c r="F14" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="D15" s="7" t="str">
+      <c r="D15" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="7" t="str">
+      <c r="F15" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="7" t="str">
+      <c r="F16" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="7" t="str">
+      <c r="D17" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="7" t="str">
+      <c r="F17" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="7" t="str">
+      <c r="D18" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="7" t="str">
+      <c r="F18" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="7" t="str">
+      <c r="D19" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="7" t="str">
+      <c r="F19" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3566,40 +4486,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>53</v>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="4"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>

--- a/data/spreadsheet.xlsx
+++ b/data/spreadsheet.xlsx
@@ -13,47 +13,31 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="C6">
-      <text>
-        <t xml:space="preserve">aaaaaaaaa
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+  <si>
+    <t>スプレットシートマスター</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>rank</t>
   </si>
   <si>
-    <t>スプレットシートマスター</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>event_id</t>
   </si>
   <si>
     <t>event_name</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>christmas</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
   <si>
     <t>user_name</t>
@@ -189,22 +173,22 @@
     <t>brew install diff-pdf</t>
   </si>
   <si>
+    <t>npm run compare commit_hash 123456789abcd</t>
+  </si>
+  <si>
+    <t>シートの順番変えられた時とか差分いっぱい出るからしんどい</t>
+  </si>
+  <si>
+    <t>余談</t>
+  </si>
+  <si>
     <t>jiro</t>
   </si>
   <si>
-    <t>npm run compare commit_hash 123456789abcd</t>
-  </si>
-  <si>
-    <t>シートの順番変えられた時とか差分いっぱい出るからしんどい</t>
+    <t>src/gas</t>
   </si>
   <si>
     <t>saburo</t>
-  </si>
-  <si>
-    <t>余談</t>
-  </si>
-  <si>
-    <t>src/gas</t>
   </si>
   <si>
     <t>GASでのみ使用するスクリプト</t>
@@ -232,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -242,6 +226,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -285,21 +270,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -318,11 +315,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2162175" cy="2152650"/>
+    <xdr:ext cx="2171700" cy="2162175"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -330,8 +327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4269675" y="2708438"/>
-          <a:ext cx="2152650" cy="2143125"/>
+          <a:off x="4264913" y="2703675"/>
+          <a:ext cx="2162175" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -383,70 +380,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3819525" cy="3000375"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3441000" y="2284575"/>
-          <a:ext cx="3810000" cy="2990850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd fmla="val 16667" name="adj"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CFE2F3"/>
-        </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buSzPts val="1400"/>
-            <a:buFont typeface="Arial"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -661,8 +595,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -689,366 +623,439 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
     </row>
     <row r="7">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+      <c r="B7" s="7"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="1" t="s">
-        <v>14</v>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="1" t="s">
-        <v>15</v>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
-      <c r="C11" s="1" t="s">
-        <v>16</v>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="1" t="s">
-        <v>17</v>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14">
-      <c r="C14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15">
-      <c r="C15" s="1" t="s">
-        <v>19</v>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="1" t="s">
-        <v>20</v>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="1" t="s">
-        <v>21</v>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="1" t="s">
-        <v>22</v>
+      <c r="B19" s="7"/>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="1" t="s">
-        <v>23</v>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="D21" s="1" t="s">
-        <v>24</v>
+      <c r="D21" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="E22" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="E23" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="E24" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="1"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="1" t="s">
-        <v>28</v>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="D27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1"/>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="D28" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="1" t="s">
-        <v>30</v>
+      <c r="C29" s="7"/>
+      <c r="E29" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="D30" s="1" t="s">
-        <v>31</v>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="1"/>
+      <c r="C31" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="1" t="s">
-        <v>32</v>
+      <c r="C32" s="7"/>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="D33" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="D34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1"/>
+      <c r="C34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="D35" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="1" t="s">
-        <v>35</v>
+      <c r="C36" s="7"/>
+      <c r="D36" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="D37" s="1" t="s">
-        <v>36</v>
+      <c r="D37" s="7"/>
+      <c r="E37" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="E38" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="E39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1"/>
+      <c r="D39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="E40" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="1" t="s">
-        <v>39</v>
+      <c r="C41" s="7"/>
+      <c r="E41" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="D42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="D43" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="1" t="s">
-        <v>41</v>
+      <c r="C44" s="7"/>
+      <c r="D44" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="D47" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="E48" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1"/>
+      <c r="B48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="C49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="D51" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="C51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="C53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="D56" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="1" t="s">
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="8" t="s">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="B59" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1"/>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2003,26 +2010,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3042,36 +3049,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1.0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1.0</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="3" t="str">
         <f t="array" ref="D2">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3087,10 +3094,10 @@
 )</f>
         <v>christmas</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>1.0</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="F2" s="3" t="str">
         <f t="array" ref="F2">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3108,10 +3115,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>2.0</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="3" t="str">
         <f t="array" ref="D3">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3128,10 +3135,10 @@
         <v>happy
 new year</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>3.0</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="3" t="str">
         <f t="array" ref="F3">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3149,7 +3156,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="3" t="str">
         <f t="array" ref="D4">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3165,10 +3172,10 @@
 )</f>
         <v/>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>2.0</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="F4" s="3" t="str">
         <f t="array" ref="F4">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3186,7 +3193,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="D5" s="6" t="str">
+      <c r="D5" s="3" t="str">
         <f t="array" ref="D5">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3202,7 +3209,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="3" t="str">
         <f t="array" ref="F5">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3220,7 +3227,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="3" t="str">
         <f t="array" ref="D6">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3236,7 +3243,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="F6" s="3" t="str">
         <f t="array" ref="F6">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3254,7 +3261,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="3" t="str">
         <f t="array" ref="D7">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3270,7 +3277,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="6" t="str">
+      <c r="F7" s="3" t="str">
         <f t="array" ref="F7">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3288,7 +3295,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="3" t="str">
         <f t="array" ref="D8">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3304,7 +3311,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="3" t="str">
         <f t="array" ref="F8">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3322,7 +3329,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="3" t="str">
         <f t="array" ref="D9">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3338,7 +3345,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F9" s="6" t="str">
+      <c r="F9" s="3" t="str">
         <f t="array" ref="F9">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3356,7 +3363,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="6" t="str">
+      <c r="F10" s="3" t="str">
         <f t="array" ref="F10">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3374,19 +3381,19 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>1.0</v>
       </c>
-      <c r="D11" s="6" t="str">
+      <c r="D11" s="3" t="str">
         <f t="shared" ref="D11:D19" si="1">GetCellFilterByColumnValue(
   "events!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",event_id") &amp;",name"
 )</f>
         <v>christmas</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>1.0</v>
       </c>
-      <c r="F11" s="6" t="str">
+      <c r="F11" s="3" t="str">
         <f t="shared" ref="F11:F19" si="2">GetCellFilterByColumnValue(
   "users!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",user_id") &amp;",name"
 )</f>
@@ -3394,94 +3401,94 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>2.0</v>
       </c>
-      <c r="D12" s="6" t="str">
+      <c r="D12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>happy
 new year</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>2.0</v>
       </c>
-      <c r="F12" s="6" t="str">
+      <c r="F12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>jiro</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>3.0</v>
       </c>
-      <c r="F13" s="6" t="str">
+      <c r="F13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>saburo</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>5.0</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="6" t="str">
+      <c r="F14" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="6" t="str">
+      <c r="F15" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="6" t="str">
+      <c r="F16" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="6" t="str">
+      <c r="F17" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="6" t="str">
+      <c r="D18" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="6" t="str">
+      <c r="F18" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="6" t="str">
+      <c r="D19" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="6" t="str">
+      <c r="F19" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4486,40 +4493,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="1"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
@@ -5516,7 +5523,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/spreadsheet.xlsx
+++ b/data/spreadsheet.xlsx
@@ -14,33 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
   <si>
     <t>スプレットシートマスター</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>event_id</t>
-  </si>
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_id</t>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>memo</t>
   </si>
   <si>
     <t>christmas</t>
-  </si>
-  <si>
-    <t>user_name</t>
   </si>
   <si>
     <t>happy
@@ -158,58 +161,58 @@
     <t>Gitのコミットハッシュでスプレットシートの差分をビジュアライズに比較する</t>
   </si>
   <si>
+    <t>使うときは</t>
+  </si>
+  <si>
+    <t>LibreOfficeをインストール</t>
+  </si>
+  <si>
+    <t>brew cask install xquartz</t>
+  </si>
+  <si>
+    <t>brew install diff-pdf</t>
+  </si>
+  <si>
+    <t>npm run compare commit_hash 123456789abcd</t>
+  </si>
+  <si>
+    <t>シートの順番変えられた時とか差分いっぱい出るからしんどい</t>
+  </si>
+  <si>
+    <t>余談</t>
+  </si>
+  <si>
+    <t>src/gas</t>
+  </si>
+  <si>
+    <t>GASでのみ使用するスクリプト</t>
+  </si>
+  <si>
+    <t>src/tasks</t>
+  </si>
+  <si>
+    <t>ローカルでのみ使用するスクリプト</t>
+  </si>
+  <si>
+    <t>テストについて</t>
+  </si>
+  <si>
+    <t>GASないでのみ使えるものは全部モックで検証</t>
+  </si>
+  <si>
+    <t>最近読めないExcel関数</t>
+  </si>
+  <si>
+    <t>INDEX MATCH</t>
+  </si>
+  <si>
     <t>taro</t>
   </si>
   <si>
-    <t>使うときは</t>
-  </si>
-  <si>
-    <t>LibreOfficeをインストール</t>
-  </si>
-  <si>
-    <t>brew cask install xquartz</t>
-  </si>
-  <si>
-    <t>brew install diff-pdf</t>
-  </si>
-  <si>
-    <t>npm run compare commit_hash 123456789abcd</t>
-  </si>
-  <si>
-    <t>シートの順番変えられた時とか差分いっぱい出るからしんどい</t>
-  </si>
-  <si>
-    <t>余談</t>
-  </si>
-  <si>
     <t>jiro</t>
   </si>
   <si>
-    <t>src/gas</t>
-  </si>
-  <si>
     <t>saburo</t>
-  </si>
-  <si>
-    <t>GASでのみ使用するスクリプト</t>
-  </si>
-  <si>
-    <t>src/tasks</t>
-  </si>
-  <si>
-    <t>ローカルでのみ使用するスクリプト</t>
-  </si>
-  <si>
-    <t>テストについて</t>
-  </si>
-  <si>
-    <t>GASないでのみ使えるものは全部モックで検証</t>
-  </si>
-  <si>
-    <t>最近読めないExcel関数</t>
-  </si>
-  <si>
-    <t>INDEX MATCH</t>
   </si>
 </sst>
 </file>
@@ -274,13 +277,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -294,10 +297,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -595,43 +598,43 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -658,22 +661,22 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -701,181 +704,181 @@
     <row r="7">
       <c r="B7" s="7"/>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="3" t="s">
-        <v>16</v>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="3" t="s">
-        <v>17</v>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="7"/>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="3" t="s">
-        <v>19</v>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="3" t="s">
-        <v>20</v>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="7"/>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15">
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="3" t="s">
-        <v>24</v>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="7"/>
       <c r="E17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="7"/>
       <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="3" t="s">
-        <v>28</v>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="D21" s="3" t="s">
-        <v>29</v>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="D23" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="C25" s="7"/>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="C26" s="7"/>
       <c r="D26" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="C29" s="7"/>
       <c r="E29" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="D30" s="7"/>
       <c r="E30" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="3" t="s">
-        <v>39</v>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="C32" s="7"/>
       <c r="D32" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="C33" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="C34" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="D35" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="C36" s="7"/>
       <c r="D36" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="D37" s="7"/>
       <c r="E37" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="C38" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="7"/>
     </row>
@@ -921,50 +924,50 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="B46" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="C47" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="B48" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E48" s="7"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="7"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="C51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="B52" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="C53" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -989,74 +992,74 @@
       <c r="D57" s="7"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="C60" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="C62" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1"/>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="11" t="s">
-        <v>61</v>
+      <c r="B64" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="C65" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1">
       <c r="B67" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="C68" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1"/>
@@ -2010,27 +2013,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -3049,36 +3052,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>1.0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="1" t="str">
         <f t="array" ref="D2">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3094,10 +3100,10 @@
 )</f>
         <v>christmas</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>1.0</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="1" t="str">
         <f t="array" ref="F2">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3115,10 +3121,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="1" t="str">
         <f t="array" ref="D3">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3135,10 +3141,10 @@
         <v>happy
 new year</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>3.0</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="1" t="str">
         <f t="array" ref="F3">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3156,7 +3162,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="1" t="str">
         <f t="array" ref="D4">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3172,10 +3178,10 @@
 )</f>
         <v/>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="1" t="str">
         <f t="array" ref="F4">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3193,7 +3199,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="1" t="str">
         <f t="array" ref="D5">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3209,7 +3215,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="1" t="str">
         <f t="array" ref="F5">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3227,7 +3233,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="1" t="str">
         <f t="array" ref="D6">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3243,7 +3249,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="1" t="str">
         <f t="array" ref="F6">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3261,7 +3267,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="1" t="str">
         <f t="array" ref="D7">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3277,7 +3283,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="1" t="str">
         <f t="array" ref="F7">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3295,7 +3301,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="1" t="str">
         <f t="array" ref="D8">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3311,7 +3317,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="1" t="str">
         <f t="array" ref="F8">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3329,7 +3335,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="1" t="str">
         <f t="array" ref="D9">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3345,7 +3351,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="1" t="str">
         <f t="array" ref="F9">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3363,7 +3369,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="1" t="str">
         <f t="array" ref="F10">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3381,19 +3387,19 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>1.0</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" ref="D11:D19" si="1">GetCellFilterByColumnValue(
   "events!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",event_id") &amp;",name"
 )</f>
         <v>christmas</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>1.0</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="1" t="str">
         <f t="shared" ref="F11:F19" si="2">GetCellFilterByColumnValue(
   "users!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",user_id") &amp;",name"
 )</f>
@@ -3401,94 +3407,94 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>2.0</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>happy
 new year</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>2.0</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>jiro</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>3.0</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>saburo</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>5.0</v>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="3" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="3" t="str">
+      <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="3" t="str">
+      <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="3" t="str">
+      <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4493,35 +4499,35 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>47</v>
+      <c r="B2" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>55</v>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>57</v>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>

--- a/data/spreadsheet.xlsx
+++ b/data/spreadsheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="talking" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="話すこと" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="events" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="rankings" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="users" sheetId="4" r:id="rId7"/>
@@ -16,12 +16,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
+    <t>スプレットシートマスター</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>rank</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>event_id</t>
   </si>
   <si>
@@ -29,12 +38,6 @@
   </si>
   <si>
     <t>user_id</t>
-  </si>
-  <si>
-    <t>スプレットシートマスター</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>user_name</t>
@@ -48,9 +51,6 @@
   <si>
     <t>happy
 new year</t>
-  </si>
-  <si>
-    <t>目的</t>
   </si>
   <si>
     <t>スプレットシートで管理しているものを全部Gitで管理しようというもの</t>
@@ -273,18 +273,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
@@ -298,6 +298,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -598,37 +601,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -661,14 +664,14 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -703,270 +706,270 @@
     </row>
     <row r="7">
       <c r="B7" s="7"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="7"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="7"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="7"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18">
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="7"/>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="C25" s="7"/>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="C26" s="7"/>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="C29" s="7"/>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="D30" s="7"/>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="C32" s="7"/>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="C36" s="7"/>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="D37" s="7"/>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="7"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="C41" s="7"/>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="D42" s="7"/>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="C44" s="7"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="7"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="7"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D53" s="7"/>
@@ -974,28 +977,31 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D57" s="7"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="11"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -1021,46 +1027,50 @@
       <c r="Y58" s="11"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="7" t="s">
-        <v>55</v>
+      <c r="B59" s="7"/>
+      <c r="C59" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="7" t="s">
-        <v>57</v>
+      <c r="B61" s="7"/>
+      <c r="C61" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1"/>
+      <c r="B62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="C63" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="12" t="s">
-        <v>59</v>
+      <c r="B64" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="7" t="s">
-        <v>60</v>
+      <c r="C65" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="C68" s="7"/>
     </row>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
@@ -2013,27 +2023,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -3052,39 +3062,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>1.0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>1.0</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="4" t="str">
         <f t="array" ref="D2">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3100,10 +3110,10 @@
 )</f>
         <v>christmas</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="4" t="str">
         <f t="array" ref="F2">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3121,10 +3131,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>2.0</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="4" t="str">
         <f t="array" ref="D3">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3141,10 +3151,10 @@
         <v>happy
 new year</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>3.0</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="4" t="str">
         <f t="array" ref="F3">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3162,7 +3172,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="4" t="str">
         <f t="array" ref="D4">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3178,10 +3188,10 @@
 )</f>
         <v/>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>2.0</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="4" t="str">
         <f t="array" ref="F4">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3199,7 +3209,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="4" t="str">
         <f t="array" ref="D5">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3215,7 +3225,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="4" t="str">
         <f t="array" ref="F5">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3233,7 +3243,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="4" t="str">
         <f t="array" ref="D6">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3249,7 +3259,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="4" t="str">
         <f t="array" ref="F6">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3267,7 +3277,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="4" t="str">
         <f t="array" ref="D7">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3283,7 +3293,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="4" t="str">
         <f t="array" ref="F7">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3301,7 +3311,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="4" t="str">
         <f t="array" ref="D8">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3317,7 +3327,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="4" t="str">
         <f t="array" ref="F8">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3335,7 +3345,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="4" t="str">
         <f t="array" ref="D9">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3351,7 +3361,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="4" t="str">
         <f t="array" ref="F9">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3369,7 +3379,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="4" t="str">
         <f t="array" ref="F10">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3387,19 +3397,19 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>1.0</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="4" t="str">
         <f t="shared" ref="D11:D19" si="1">GetCellFilterByColumnValue(
   "events!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",event_id") &amp;",name"
 )</f>
         <v>christmas</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>1.0</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="4" t="str">
         <f t="shared" ref="F11:F19" si="2">GetCellFilterByColumnValue(
   "users!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",user_id") &amp;",name"
 )</f>
@@ -3407,94 +3417,94 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>2.0</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>happy
 new year</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>2.0</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>jiro</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>3.0</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>saburo</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>5.0</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="F14" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="D15" s="1" t="str">
+      <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="1" t="str">
+      <c r="D16" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="1" t="str">
+      <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="1" t="str">
+      <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="1" t="str">
+      <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="1" t="str">
+      <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="1" t="str">
+      <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4499,34 +4509,34 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
     </row>

--- a/data/spreadsheet.xlsx
+++ b/data/spreadsheet.xlsx
@@ -13,37 +13,50 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C6">
+      <text>
+        <t xml:space="preserve">aaaaaaaaa
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
   <si>
     <t>スプレットシートマスター</t>
   </si>
   <si>
-    <t>目的</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>rank</t>
+    <t>memo</t>
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>event_id</t>
-  </si>
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>memo</t>
   </si>
   <si>
     <t>christmas</t>
@@ -51,6 +64,9 @@
   <si>
     <t>happy
 new year</t>
+  </si>
+  <si>
+    <t>目的</t>
   </si>
   <si>
     <t>スプレットシートで管理しているものを全部Gitで管理しようというもの</t>
@@ -219,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -229,7 +245,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -273,37 +288,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -386,7 +383,70 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3829050" cy="3009900"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436238" y="2279813"/>
+          <a:ext cx="3819525" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd fmla="val 16667" name="adj"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CFE2F3"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1400"/>
+            <a:buFont typeface="Arial"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -601,8 +661,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -629,448 +689,368 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+    <row r="8">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="7"/>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="9">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" s="4" t="s">
+    <row r="10">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="D9" s="4" t="s">
+    <row r="12">
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="7"/>
-      <c r="E10" s="3" t="s">
+    <row r="13">
+      <c r="C13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" s="4" t="s">
+    <row r="14">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12">
-      <c r="D12" s="4" t="s">
+    <row r="16">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13">
-      <c r="C13" s="7"/>
-      <c r="D13" s="3" t="s">
+    <row r="17">
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="20">
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16">
-      <c r="D16" s="4" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="D17" s="7"/>
-      <c r="E17" s="3" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="E22" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18">
-      <c r="E18" s="3" t="s">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="7"/>
-      <c r="E19" s="3" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20">
-      <c r="C20" s="4" t="s">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="D21" s="4" t="s">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="3" t="s">
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="D23" s="3" t="s">
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="D30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="7"/>
-      <c r="D25" s="3" t="s">
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="7"/>
-      <c r="D26" s="3" t="s">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="D34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="3" t="s">
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="D28" s="3" t="s">
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="7"/>
-      <c r="E29" s="3" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="E38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="D30" s="7"/>
-      <c r="E30" s="3" t="s">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="E39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="4" t="s">
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="7"/>
-      <c r="D32" s="3" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="D42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="3" t="s">
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="3" t="s">
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="C45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="D35" s="3" t="s">
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="7"/>
-      <c r="D36" s="3" t="s">
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="D47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="D37" s="7"/>
-      <c r="E37" s="3" t="s">
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="E48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="3" t="s">
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="C50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="3" t="s">
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="D51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="E40" s="3" t="s">
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="7"/>
-      <c r="E41" s="3" t="s">
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="D42" s="7"/>
-      <c r="E42" s="3" t="s">
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="D43" s="3" t="s">
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="D55" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="7"/>
-      <c r="D44" s="3" t="s">
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="D56" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="3" t="s">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="3" t="s">
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="C60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="3" t="s">
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="B61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="3" t="s">
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="C62" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="3" t="s">
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="B64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="3" t="s">
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="C65" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="D54" s="7"/>
-      <c r="E54" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="D55" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="7"/>
-      <c r="C59" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="7"/>
-      <c r="C61" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="7"/>
+      <c r="B67" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="7"/>
+      <c r="C68" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
@@ -2023,27 +2003,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -3062,39 +3042,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="3" t="str">
         <f t="array" ref="D2">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3110,10 +3090,10 @@
 )</f>
         <v>christmas</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>1.0</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="3" t="str">
         <f t="array" ref="F2">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3131,10 +3111,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="3" t="str">
         <f t="array" ref="D3">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3151,10 +3131,10 @@
         <v>happy
 new year</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>3.0</v>
       </c>
-      <c r="F3" s="4" t="str">
+      <c r="F3" s="3" t="str">
         <f t="array" ref="F3">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3172,7 +3152,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <f t="array" ref="D4">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3188,10 +3168,10 @@
 )</f>
         <v/>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="3" t="str">
         <f t="array" ref="F4">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3209,7 +3189,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="3" t="str">
         <f t="array" ref="D5">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3225,7 +3205,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="4" t="str">
+      <c r="F5" s="3" t="str">
         <f t="array" ref="F5">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3243,7 +3223,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="3" t="str">
         <f t="array" ref="D6">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3259,7 +3239,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="4" t="str">
+      <c r="F6" s="3" t="str">
         <f t="array" ref="F6">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3277,7 +3257,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="3" t="str">
         <f t="array" ref="D7">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3293,7 +3273,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="4" t="str">
+      <c r="F7" s="3" t="str">
         <f t="array" ref="F7">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3311,7 +3291,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="3" t="str">
         <f t="array" ref="D8">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3327,7 +3307,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="4" t="str">
+      <c r="F8" s="3" t="str">
         <f t="array" ref="F8">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3345,7 +3325,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="3" t="str">
         <f t="array" ref="D9">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3361,7 +3341,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="F9" s="3" t="str">
         <f t="array" ref="F9">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3379,7 +3359,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="4" t="str">
+      <c r="F10" s="3" t="str">
         <f t="array" ref="F10">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3397,19 +3377,19 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>1.0</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="3" t="str">
         <f t="shared" ref="D11:D19" si="1">GetCellFilterByColumnValue(
   "events!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",event_id") &amp;",name"
 )</f>
         <v>christmas</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>1.0</v>
       </c>
-      <c r="F11" s="4" t="str">
+      <c r="F11" s="3" t="str">
         <f t="shared" ref="F11:F19" si="2">GetCellFilterByColumnValue(
   "users!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",user_id") &amp;",name"
 )</f>
@@ -3417,94 +3397,94 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>2.0</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>happy
 new year</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>2.0</v>
       </c>
-      <c r="F12" s="4" t="str">
+      <c r="F12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>jiro</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>3.0</v>
       </c>
-      <c r="F13" s="4" t="str">
+      <c r="F13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>saburo</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>5.0</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="4" t="str">
+      <c r="F14" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="4" t="str">
+      <c r="F15" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="4" t="str">
+      <c r="F16" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="4" t="str">
+      <c r="F17" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="4" t="str">
+      <c r="F18" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="4" t="str">
+      <c r="F19" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4509,40 +4489,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="7"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
@@ -5539,6 +5519,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/spreadsheet.xlsx
+++ b/data/spreadsheet.xlsx
@@ -35,35 +35,35 @@
     <t>id</t>
   </si>
   <si>
+    <t>スプレットシートマスター</t>
+  </si>
+  <si>
     <t>rank</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>event_id</t>
   </si>
   <si>
     <t>event_name</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>user_id</t>
   </si>
   <si>
     <t>user_name</t>
-  </si>
-  <si>
-    <t>スプレットシートマスター</t>
-  </si>
-  <si>
-    <t>memo</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>happy
 new year</t>
+  </si>
+  <si>
+    <t>memo</t>
   </si>
   <si>
     <t>目的</t>
@@ -288,19 +288,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -662,99 +676,99 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
@@ -772,7 +786,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="1"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11">
       <c r="C11" s="1" t="s">
@@ -785,13 +799,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="1"/>
+      <c r="C13" s="6"/>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="1"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15">
       <c r="C15" s="1" t="s">
@@ -824,7 +838,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -839,7 +853,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="1"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="C26" s="1" t="s">
@@ -863,7 +877,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="1"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="C32" s="1" t="s">
@@ -924,7 +938,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="1"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="1" t="s">
         <v>44</v>
       </c>
@@ -951,19 +965,19 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="D52" s="1"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="D53" s="1"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="D54" s="1"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="1" t="s">
         <v>51</v>
       </c>
@@ -979,36 +993,36 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="D57" s="1"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="1" t="s">
@@ -2007,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -2015,7 +2029,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2023,7 +2037,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -3046,22 +3060,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -3074,7 +3088,7 @@
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="1" t="str">
         <f t="array" ref="D2">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3093,7 +3107,7 @@
       <c r="E2" s="1">
         <v>1.0</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="1" t="str">
         <f t="array" ref="F2">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3114,7 +3128,7 @@
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="1" t="str">
         <f t="array" ref="D3">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3134,7 +3148,7 @@
       <c r="E3" s="1">
         <v>3.0</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="1" t="str">
         <f t="array" ref="F3">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3152,7 +3166,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="1" t="str">
         <f t="array" ref="D4">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3171,7 +3185,7 @@
       <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="1" t="str">
         <f t="array" ref="F4">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3189,7 +3203,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="1" t="str">
         <f t="array" ref="D5">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3205,7 +3219,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="1" t="str">
         <f t="array" ref="F5">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3223,7 +3237,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="1" t="str">
         <f t="array" ref="D6">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3239,7 +3253,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="1" t="str">
         <f t="array" ref="F6">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3257,7 +3271,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="1" t="str">
         <f t="array" ref="D7">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3273,7 +3287,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="1" t="str">
         <f t="array" ref="F7">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3291,7 +3305,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="1" t="str">
         <f t="array" ref="D8">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3307,7 +3321,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="1" t="str">
         <f t="array" ref="F8">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3325,7 +3339,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="1" t="str">
         <f t="array" ref="D9">IFERROR(
   INDEX(
     INDIRECT("'events'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", events!$1:$1, 0), 4), 1, "")),
@@ -3341,7 +3355,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="1" t="str">
         <f t="array" ref="F9">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3359,7 +3373,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="1" t="str">
         <f t="array" ref="F10">IFERROR(
   INDEX(
     INDIRECT("'users'" &amp; "!" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "") &amp; ":" &amp; SUBSTITUTE(ADDRESS(1, MATCH("name", users!$1:$1, 0), 4), 1, "")),
@@ -3380,7 +3394,7 @@
       <c r="C11" s="1">
         <v>1.0</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" ref="D11:D19" si="1">GetCellFilterByColumnValue(
   "events!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",event_id") &amp;",name"
 )</f>
@@ -3389,7 +3403,7 @@
       <c r="E11" s="1">
         <v>1.0</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="1" t="str">
         <f t="shared" ref="F11:F19" si="2">GetCellFilterByColumnValue(
   "users!1:1!id," &amp; GetCellByColumnName("1:1," &amp; ROW(11:11) &amp; ",user_id") &amp;",name"
 )</f>
@@ -3400,7 +3414,7 @@
       <c r="C12" s="1">
         <v>2.0</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>happy
 new year</v>
@@ -3408,20 +3422,20 @@
       <c r="E12" s="1">
         <v>2.0</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>jiro</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" s="1">
         <v>3.0</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>saburo</v>
       </c>
@@ -3430,61 +3444,61 @@
       <c r="B14" s="1">
         <v>5.0</v>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="3" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="3" t="str">
+      <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="3" t="str">
+      <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="3" t="str">
+      <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4493,14 +4507,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4522,7 +4536,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="1"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
